--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfReward.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfReward.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EA1698-132C-4FD0-9C21-6AC23369A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -313,14 +314,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>薪碼:Q2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>薪碼:Q1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>介紹獎金轉檔日</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -410,19 +403,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>RepayType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.撥貸(計件代碼變更)，為撥款日期
-2.部分償還、提前結案，為會計日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暫不用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,12 +433,31 @@
   <si>
     <t>CreateDate</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:撥貸(計件代碼變更)，為撥款日期
+2:部分償還、提前結案，為會計日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:撥款(計件代碼變更)
+2:部分償還
+3:提前結案</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪碼：Q2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪碼：Q1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -749,7 +752,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -840,6 +843,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -875,6 +895,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1050,11 +1087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1074,10 +1111,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1102,7 +1139,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1187,13 +1224,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1217,7 +1254,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -1262,7 +1299,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>26</v>
@@ -1272,25 +1309,25 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>6</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="35" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,10 +1335,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>36</v>
@@ -1316,10 +1353,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>36</v>
@@ -1328,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1419,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1427,10 +1464,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>29</v>
@@ -1439,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1462,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1470,10 +1507,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>29</v>
@@ -1482,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1505,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1516,7 +1553,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>29</v>
@@ -1525,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1567,7 +1604,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>32</v>
@@ -1650,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1704,7 +1741,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1745,7 +1782,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
@@ -1753,21 +1790,21 @@
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
